--- a/Output/Decomposition_Graph.xlsx
+++ b/Output/Decomposition_Graph.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Apps\GitHub\Adopting-the-Euro-SCM\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Apps\GitHub\Euro-SCM-Replication-EJPE\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E35A1A-0CB6-4DD0-A53F-282D439D2D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD001F-C4B0-4075-A83E-31F7E481F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="255" windowWidth="21600" windowHeight="11715" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decomposition_newbaseline" sheetId="4" r:id="rId1"/>
-    <sheet name="Decomposition" sheetId="1" r:id="rId2"/>
-    <sheet name="Folha1" sheetId="2" r:id="rId3"/>
-    <sheet name="Folha2" sheetId="3" r:id="rId4"/>
+    <sheet name="Decomposition_v2020" sheetId="1" r:id="rId2"/>
+    <sheet name="Folha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Folha2!$A$1:$M$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Folha2!$A$1:$M$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>Austria</t>
   </si>
@@ -95,192 +94,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>3.76983666419982</t>
-  </si>
-  <si>
-    <t>-2.47975564002991</t>
-  </si>
-  <si>
-    <t>-1.73102462291718</t>
-  </si>
-  <si>
-    <t>-4.95777463912963</t>
-  </si>
-  <si>
-    <t>-5.39871454238891</t>
-  </si>
-  <si>
-    <t>-3.35062861442565</t>
-  </si>
-  <si>
-    <t>1.07932662963867</t>
-  </si>
-  <si>
-    <t>-1.39105308055878</t>
-  </si>
-  <si>
-    <t>-2.01990890502929</t>
-  </si>
-  <si>
-    <t>-5.68226480484008</t>
-  </si>
-  <si>
-    <t>1.69426465034485</t>
-  </si>
-  <si>
-    <t>1.93454563617706</t>
-  </si>
-  <si>
-    <t>0.0611834973096848</t>
-  </si>
-  <si>
-    <t>-0.968410491943359</t>
-  </si>
-  <si>
-    <t>2.72158145904541</t>
-  </si>
-  <si>
-    <t>-5.02420234680175</t>
-  </si>
-  <si>
-    <t>1.31284379959106</t>
-  </si>
-  <si>
-    <t>-2.3964831829071</t>
-  </si>
-  <si>
-    <t>-2.86483669281006</t>
-  </si>
-  <si>
-    <t>-8.97267436981201</t>
-  </si>
-  <si>
-    <t>-12.1831521987915</t>
-  </si>
-  <si>
-    <t>-2.33826780319214</t>
-  </si>
-  <si>
-    <t>-6.43141460418701</t>
-  </si>
-  <si>
-    <t>4.6985673904419</t>
-  </si>
-  <si>
-    <t>-16.2542648315429</t>
-  </si>
-  <si>
-    <t>-0.827353537082672</t>
-  </si>
-  <si>
-    <t>2.83161091804504</t>
-  </si>
-  <si>
-    <t>1.86566805839539</t>
-  </si>
-  <si>
-    <t>-8.93593215942382</t>
-  </si>
-  <si>
-    <t>-5.06600475311279</t>
-  </si>
-  <si>
-    <t>11.3647270202637</t>
-  </si>
-  <si>
-    <t>4.31213283538818</t>
-  </si>
-  <si>
-    <t>18.5050926208496</t>
-  </si>
-  <si>
-    <t>4.90418243408203</t>
-  </si>
-  <si>
-    <t>39.086139678955</t>
-  </si>
-  <si>
-    <t>-10.313720703125</t>
-  </si>
-  <si>
-    <t>-1.78516459465027</t>
-  </si>
-  <si>
-    <t>-5.33159208297729</t>
-  </si>
-  <si>
-    <t>-0.92574405670166</t>
-  </si>
-  <si>
-    <t>-18.3562221527099</t>
-  </si>
-  <si>
-    <t>-16.8395595550537</t>
-  </si>
-  <si>
-    <t>5.92288255691528</t>
-  </si>
-  <si>
-    <t>-4.36828088760375</t>
-  </si>
-  <si>
-    <t>27.8570785522461</t>
-  </si>
-  <si>
-    <t>12.5721282958984</t>
-  </si>
-  <si>
-    <t>-4.28317213058471</t>
-  </si>
-  <si>
-    <t>6.0507755279541</t>
-  </si>
-  <si>
-    <t>-0.267821609973908</t>
-  </si>
-  <si>
-    <t>-0.976839065551757</t>
-  </si>
-  <si>
-    <t>0.522936642169952</t>
-  </si>
-  <si>
-    <t>-7.45608758926391</t>
-  </si>
-  <si>
-    <t>2.07138919830322</t>
-  </si>
-  <si>
-    <t>-0.924855351448059</t>
-  </si>
-  <si>
-    <t>-5.86435508728027</t>
-  </si>
-  <si>
-    <t>-12.1739130020141</t>
-  </si>
-  <si>
-    <t>-2.99028968811035</t>
-  </si>
-  <si>
-    <t>4.34761047363281</t>
-  </si>
-  <si>
-    <t>7.6507511138916</t>
-  </si>
-  <si>
-    <t>-5.11295986175537</t>
-  </si>
-  <si>
-    <t>3.89510917663574</t>
-  </si>
-  <si>
-    <t>graph bar c g i nx, over(country, label(  labsize(small) angle(45))) stack legen(order(1 "private consumption" 2 "government consumption" 3 "investment" 4 "trade balance")) bar(1, color(gs0)) bar(2, color(gs5)) bar(3, color(gs10)) bar(4, color(gs14)) ylabel( , labsize(small) angle(horizontal))</t>
-  </si>
-  <si>
-    <t>label define label  1 "Austria" 2 "Belgium" 3 "France" 4"Germany" 5 "Greece" 6 "Ireland " 7 "Italy " 8"Luxembourg " 9 "Netherlands " 10 "Portugal " 11"Spain"</t>
-  </si>
-  <si>
     <t>Government Consumption</t>
   </si>
   <si>
@@ -300,16 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,9 +139,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -457,40 +263,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.80077660083770696</c:v>
+                  <c:v>0.86756867170333862</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.34911125898361212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1019454002380371</c:v>
+                  <c:v>-4.76524047553539E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5000886917114258</c:v>
+                  <c:v>-4.0830531120300293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.23778629302979</c:v>
+                  <c:v>-7.8781418800354004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4119632244110112</c:v>
+                  <c:v>1.820960640907288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.76279258728027</c:v>
+                  <c:v>11.36473178863525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.40274047851563</c:v>
+                  <c:v>-8.6794157028198242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.05447959899902</c:v>
+                  <c:v>-17.688358306884769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.2831697463989258</c:v>
+                  <c:v>-4.282341480255127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.2101449966430664</c:v>
+                  <c:v>-7.4785289764404297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.3514623641967769</c:v>
+                  <c:v>-3.7520606517791748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,40 +380,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.2028849124908452</c:v>
+                  <c:v>2.219003438949585</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.8655366897583008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50212967395782471</c:v>
+                  <c:v>1.741524815559387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65150761604309082</c:v>
+                  <c:v>0.70842981338500977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.529950737953186</c:v>
+                  <c:v>1.4281715154647829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6984589099884029</c:v>
+                  <c:v>3.261458158493042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6526989936828613</c:v>
+                  <c:v>4.3121323585510254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5303206443786621</c:v>
+                  <c:v>-2.90678882598877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0194416046142578</c:v>
+                  <c:v>3.2858673483133302E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0507779121398926</c:v>
+                  <c:v>6.067842960357666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.1773822903633104E-2</c:v>
+                  <c:v>2.0431375503540039</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.210186243057251</c:v>
+                  <c:v>3.2247834205627441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,40 +498,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.2430629730224609</c:v>
+                  <c:v>-1.218452930450439</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.3634312152862551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.519248247146606</c:v>
+                  <c:v>1.9635529518127439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5794823169708252</c:v>
+                  <c:v>-2.4846889972686772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.2958297729492188</c:v>
+                  <c:v>-6.629636287689209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.776292085647583</c:v>
+                  <c:v>3.1642336845397949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.354976654052731</c:v>
+                  <c:v>18.505096435546879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.7980613708496094</c:v>
+                  <c:v>-5.6758871078491211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.0640029907226558</c:v>
+                  <c:v>-0.59555220603942871</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.26781842112541199</c:v>
+                  <c:v>-0.26504403352737432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.7512062788009639</c:v>
+                  <c:v>-0.9100680947303772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.456562995910639</c:v>
+                  <c:v>9.0975990295410156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,40 +616,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.984438419342041</c:v>
+                  <c:v>-4.0050206184387207</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.2425498962402344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.6041355133056641</c:v>
+                  <c:v>-0.72651195526123047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.1962566375732422</c:v>
+                  <c:v>-3.2637290954589839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98150300979614258</c:v>
+                  <c:v>-1.0083484649658201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.624954223632811</c:v>
+                  <c:v>-10.9933967590332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22701263427734381</c:v>
+                  <c:v>4.9041824340820313</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.381391763687134</c:v>
+                  <c:v>-1.217256546020508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.073822021484379</c:v>
+                  <c:v>34.269393920898438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.97684288024902344</c:v>
+                  <c:v>-0.98349380493164063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.6691923141479492</c:v>
+                  <c:v>-5.8367652893066406</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.4639854431152344</c:v>
+                  <c:v>-4.0643086433410636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,40 +776,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.223838329315186</c:v>
+                  <c:v>-2.136902809143066</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2.391326904296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5191860198974609</c:v>
+                  <c:v>2.9309113025665279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.6243181228637695</c:v>
+                  <c:v>-9.123042106628418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.02216625213623</c:v>
+                  <c:v>-14.087953567504879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7382359504699707</c:v>
+                  <c:v>-2.7467401027679439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.997467041015632</c:v>
+                  <c:v>39.086143493652337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.349729537963871</c:v>
+                  <c:v>-18.47934722900391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.974778175354</c:v>
+                  <c:v>16.018362045288089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52294445037841797</c:v>
+                  <c:v>0.5369640588760376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-16.722318649291989</c:v>
+                  <c:v>-12.18222141265869</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8513021469116211</c:v>
+                  <c:v>4.5060186386108398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +1003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Decomposition!$H$3</c:f>
+              <c:f>Decomposition_v2020!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1216,7 +1022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Decomposition!$I$2:$T$2</c:f>
+              <c:f>Decomposition_v2020!$I$2:$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1260,7 +1066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Decomposition!$I$3:$T$3</c:f>
+              <c:f>Decomposition_v2020!$I$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1314,7 +1120,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Decomposition!$H$4</c:f>
+              <c:f>Decomposition_v2020!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1333,7 +1139,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Decomposition!$I$2:$T$2</c:f>
+              <c:f>Decomposition_v2020!$I$2:$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1377,7 +1183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Decomposition!$I$4:$T$4</c:f>
+              <c:f>Decomposition_v2020!$I$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1431,7 +1237,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Decomposition!$H$5</c:f>
+              <c:f>Decomposition_v2020!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1451,7 +1257,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Decomposition!$I$2:$T$2</c:f>
+              <c:f>Decomposition_v2020!$I$2:$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1495,7 +1301,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Decomposition!$I$5:$T$5</c:f>
+              <c:f>Decomposition_v2020!$I$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1549,7 +1355,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Decomposition!$H$6</c:f>
+              <c:f>Decomposition_v2020!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1569,7 +1375,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Decomposition!$I$2:$T$2</c:f>
+              <c:f>Decomposition_v2020!$I$2:$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1613,7 +1419,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Decomposition!$I$6:$T$6</c:f>
+              <c:f>Decomposition_v2020!$I$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1683,7 +1489,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Decomposition!$H$7</c:f>
+              <c:f>Decomposition_v2020!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1729,7 +1535,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Decomposition!$I$2:$T$2</c:f>
+              <c:f>Decomposition_v2020!$I$2:$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1773,7 +1579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decomposition!$I$7:$T$7</c:f>
+              <c:f>Decomposition_v2020!$I$7:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2073,40 +1879,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.80077660083770696</c:v>
+                  <c:v>0.86756867170333862</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.34911125898361212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1019454002380371</c:v>
+                  <c:v>-4.76524047553539E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5000886917114258</c:v>
+                  <c:v>-4.0830531120300293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.23778629302979</c:v>
+                  <c:v>-7.8781418800354004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4119632244110112</c:v>
+                  <c:v>1.820960640907288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.76279258728027</c:v>
+                  <c:v>11.36473178863525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.40274047851563</c:v>
+                  <c:v>-8.6794157028198242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.05447959899902</c:v>
+                  <c:v>-17.688358306884769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.2831697463989258</c:v>
+                  <c:v>-4.282341480255127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.2101449966430664</c:v>
+                  <c:v>-7.4785289764404297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.3514623641967769</c:v>
+                  <c:v>-3.7520606517791748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,40 +1996,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.2028849124908452</c:v>
+                  <c:v>2.219003438949585</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.8655366897583008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50212967395782471</c:v>
+                  <c:v>1.741524815559387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65150761604309082</c:v>
+                  <c:v>0.70842981338500977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.529950737953186</c:v>
+                  <c:v>1.4281715154647829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6984589099884029</c:v>
+                  <c:v>3.261458158493042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6526989936828613</c:v>
+                  <c:v>4.3121323585510254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5303206443786621</c:v>
+                  <c:v>-2.90678882598877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0194416046142578</c:v>
+                  <c:v>3.2858673483133302E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0507779121398926</c:v>
+                  <c:v>6.067842960357666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.1773822903633104E-2</c:v>
+                  <c:v>2.0431375503540039</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.210186243057251</c:v>
+                  <c:v>3.2247834205627441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,40 +2114,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.2430629730224609</c:v>
+                  <c:v>-1.218452930450439</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.3634312152862551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.519248247146606</c:v>
+                  <c:v>1.9635529518127439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5794823169708252</c:v>
+                  <c:v>-2.4846889972686772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.2958297729492188</c:v>
+                  <c:v>-6.629636287689209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.776292085647583</c:v>
+                  <c:v>3.1642336845397949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.354976654052731</c:v>
+                  <c:v>18.505096435546879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.7980613708496094</c:v>
+                  <c:v>-5.6758871078491211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.0640029907226558</c:v>
+                  <c:v>-0.59555220603942871</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.26781842112541199</c:v>
+                  <c:v>-0.26504403352737432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.7512062788009639</c:v>
+                  <c:v>-0.9100680947303772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.456562995910639</c:v>
+                  <c:v>9.0975990295410156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,40 +2232,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.984438419342041</c:v>
+                  <c:v>-4.0050206184387207</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.2425498962402344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.6041355133056641</c:v>
+                  <c:v>-0.72651195526123047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.1962566375732422</c:v>
+                  <c:v>-3.2637290954589839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98150300979614258</c:v>
+                  <c:v>-1.0083484649658201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.624954223632811</c:v>
+                  <c:v>-10.9933967590332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22701263427734381</c:v>
+                  <c:v>4.9041824340820313</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.381391763687134</c:v>
+                  <c:v>-1.217256546020508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.073822021484379</c:v>
+                  <c:v>34.269393920898438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.97684288024902344</c:v>
+                  <c:v>-0.98349380493164063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.6691923141479492</c:v>
+                  <c:v>-5.8367652893066406</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.4639854431152344</c:v>
+                  <c:v>-4.0643086433410636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,40 +2388,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.223838329315186</c:v>
+                  <c:v>-2.136902809143066</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2.391326904296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5191860198974609</c:v>
+                  <c:v>2.9309113025665279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.6243181228637695</c:v>
+                  <c:v>-9.123042106628418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.02216625213623</c:v>
+                  <c:v>-14.087953567504879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7382359504699707</c:v>
+                  <c:v>-2.7467401027679439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.997467041015632</c:v>
+                  <c:v>39.086143493652337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.349729537963871</c:v>
+                  <c:v>-18.47934722900391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.974778175354</c:v>
+                  <c:v>16.018362045288089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52294445037841797</c:v>
+                  <c:v>0.5369640588760376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-16.722318649291989</c:v>
+                  <c:v>-12.18222141265869</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8513021469116211</c:v>
+                  <c:v>4.5060186386108398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3431,13 +3237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E643D296-C2EF-40D7-B54E-202ADD11FA8A}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="20" width="10.28515625" customWidth="1"/>
+    <col min="9" max="20" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3464,20 +3270,20 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.80077660083770696</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.2028849124908452</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-1.2430629730224609</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-3.984438419342041</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-2.223838329315186</v>
+      <c r="B2" s="1">
+        <v>0.86756867170333862</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.219003438949585</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.218452930450439</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4.0050206184387207</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2.136902809143066</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -3520,415 +3326,415 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.34911125898361212</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>6.8655366897583008</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>-1.3634312152862551</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-8.2425498962402344</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-2.391326904296875</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.80077660083770696</v>
-      </c>
-      <c r="J3" s="2">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.86756867170333862</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.34911125898361212</v>
       </c>
-      <c r="K3" s="2">
-        <v>7.1019454002380371</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-4.5000886917114258</v>
-      </c>
-      <c r="M3" s="2">
-        <v>-10.23778629302979</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3.4119632244110112</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15.76279258728027</v>
-      </c>
-      <c r="P3" s="2">
-        <v>-15.40274047851563</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>-17.05447959899902</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-4.2831697463989258</v>
-      </c>
-      <c r="S3" s="2">
-        <v>-9.2101449966430664</v>
-      </c>
-      <c r="T3" s="2">
-        <v>-3.3514623641967769</v>
+      <c r="K3" s="1">
+        <v>-4.76524047553539E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4.0830531120300293</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-7.8781418800354004</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.820960640907288</v>
+      </c>
+      <c r="O3" s="1">
+        <v>11.36473178863525</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-8.6794157028198242</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-17.688358306884769</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-4.282341480255127</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-7.4785289764404297</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-3.7520606517791748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.1019454002380371</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.50212967395782471</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.519248247146606</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-4.6041355133056641</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4.5191860198974609</v>
+      <c r="B4" s="1">
+        <v>-4.76524047553539E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.741524815559387</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.9635529518127439</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-0.72651195526123047</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.9309113025665279</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.2028849124908452</v>
-      </c>
-      <c r="J4" s="2">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.219003438949585</v>
+      </c>
+      <c r="J4" s="1">
         <v>6.8655366897583008</v>
       </c>
-      <c r="K4" s="2">
-        <v>0.50212967395782471</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.65150761604309082</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1.529950737953186</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3.6984589099884029</v>
-      </c>
-      <c r="O4" s="2">
-        <v>6.6526989936828613</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-2.5303206443786621</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4.0194416046142578</v>
-      </c>
-      <c r="R4" s="2">
-        <v>6.0507779121398926</v>
-      </c>
-      <c r="S4" s="2">
-        <v>-9.1773822903633104E-2</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2.210186243057251</v>
+      <c r="K4" s="1">
+        <v>1.741524815559387</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.70842981338500977</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.4281715154647829</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.261458158493042</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.3121323585510254</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-2.90678882598877</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3.2858673483133302E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6.067842960357666</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.0431375503540039</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3.2247834205627441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>-4.5000886917114258</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.65150761604309082</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-2.5794823169708252</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-3.1962566375732422</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-9.6243181228637695</v>
+      <c r="B5" s="1">
+        <v>-4.0830531120300293</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.70842981338500977</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2.4846889972686772</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.2637290954589839</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-9.123042106628418</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-1.2430629730224609</v>
-      </c>
-      <c r="J5" s="2">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1.218452930450439</v>
+      </c>
+      <c r="J5" s="1">
         <v>-1.3634312152862551</v>
       </c>
-      <c r="K5" s="2">
-        <v>1.519248247146606</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-2.5794823169708252</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-6.2958297729492188</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3.776292085647583</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17.354976654052731</v>
-      </c>
-      <c r="P5" s="2">
-        <v>-4.7980613708496094</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>-3.0640029907226558</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-0.26781842112541199</v>
-      </c>
-      <c r="S5" s="2">
-        <v>-1.7512062788009639</v>
-      </c>
-      <c r="T5" s="2">
-        <v>12.456562995910639</v>
+      <c r="K5" s="1">
+        <v>1.9635529518127439</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2.4846889972686772</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-6.629636287689209</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.1642336845397949</v>
+      </c>
+      <c r="O5" s="1">
+        <v>18.505096435546879</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-5.6758871078491211</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-0.59555220603942871</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.26504403352737432</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-0.9100680947303772</v>
+      </c>
+      <c r="T5" s="1">
+        <v>9.0975990295410156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>-10.23778629302979</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.529950737953186</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-6.2958297729492188</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.98150300979614258</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-14.02216625213623</v>
+      <c r="B6" s="1">
+        <v>-7.8781418800354004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.4281715154647829</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-6.629636287689209</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1.0083484649658201</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-14.087953567504879</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-3.984438419342041</v>
-      </c>
-      <c r="J6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-4.0050206184387207</v>
+      </c>
+      <c r="J6" s="1">
         <v>-8.2425498962402344</v>
       </c>
-      <c r="K6" s="2">
-        <v>-4.6041355133056641</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-3.1962566375732422</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.98150300979614258</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-11.624954223632811</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.22701263427734381</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1.381391763687134</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>30.073822021484379</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-0.97684288024902344</v>
-      </c>
-      <c r="S6" s="2">
-        <v>-5.6691923141479492</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-4.4639854431152344</v>
+      <c r="K6" s="1">
+        <v>-0.72651195526123047</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-3.2637290954589839</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1.0083484649658201</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-10.9933967590332</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.9041824340820313</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1.217256546020508</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>34.269393920898438</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.98349380493164063</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-5.8367652893066406</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-4.0643086433410636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>3.4119632244110112</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.6984589099884029</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.776292085647583</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-11.624954223632811</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.7382359504699707</v>
+      <c r="B7" s="1">
+        <v>1.820960640907288</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.261458158493042</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.1642336845397949</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-10.9933967590332</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-2.7467401027679439</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-2.223838329315186</v>
-      </c>
-      <c r="J7" s="2">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-2.136902809143066</v>
+      </c>
+      <c r="J7" s="1">
         <v>-2.391326904296875</v>
       </c>
-      <c r="K7" s="2">
-        <v>4.5191860198974609</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-9.6243181228637695</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-14.02216625213623</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-0.7382359504699707</v>
-      </c>
-      <c r="O7" s="2">
-        <v>39.997467041015632</v>
-      </c>
-      <c r="P7" s="2">
-        <v>-21.349729537963871</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>13.974778175354</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.52294445037841797</v>
-      </c>
-      <c r="S7" s="2">
-        <v>-16.722318649291989</v>
-      </c>
-      <c r="T7" s="2">
-        <v>6.8513021469116211</v>
+      <c r="K7" s="1">
+        <v>2.9309113025665279</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-9.123042106628418</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-14.087953567504879</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-2.7467401027679439</v>
+      </c>
+      <c r="O7" s="1">
+        <v>39.086143493652337</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-18.47934722900391</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>16.018362045288089</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.5369640588760376</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-12.18222141265869</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4.5060186386108398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>15.76279258728027</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.6526989936828613</v>
-      </c>
-      <c r="D8" s="2">
-        <v>17.354976654052731</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.22701263427734381</v>
-      </c>
-      <c r="F8" s="2">
-        <v>39.997467041015632</v>
+      <c r="B8" s="1">
+        <v>11.36473178863525</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.3121323585510254</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18.505096435546879</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.9041824340820313</v>
+      </c>
+      <c r="F8" s="1">
+        <v>39.086143493652337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>-15.40274047851563</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-2.5303206443786621</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-4.7980613708496094</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.381391763687134</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-21.349729537963871</v>
+      <c r="B9" s="1">
+        <v>-8.6794157028198242</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-2.90678882598877</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-5.6758871078491211</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1.217256546020508</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-18.47934722900391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>-17.05447959899902</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.0194416046142578</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-3.0640029907226558</v>
-      </c>
-      <c r="E10" s="2">
-        <v>30.073822021484379</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13.974778175354</v>
+      <c r="B10" s="1">
+        <v>-17.688358306884769</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2858673483133302E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.59555220603942871</v>
+      </c>
+      <c r="E10" s="1">
+        <v>34.269393920898438</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16.018362045288089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>-4.2831697463989258</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.0507779121398926</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-0.26781842112541199</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.97684288024902344</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.52294445037841797</v>
+      <c r="B11" s="1">
+        <v>-4.282341480255127</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.067842960357666</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.26504403352737432</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.98349380493164063</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.5369640588760376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>-9.2101449966430664</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-9.1773822903633104E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-1.7512062788009639</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-5.6691923141479492</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-16.722318649291989</v>
+      <c r="B12" s="1">
+        <v>-7.4785289764404297</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.0431375503540039</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.9100680947303772</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-5.8367652893066406</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-12.18222141265869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>-3.3514623641967769</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.210186243057251</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12.456562995910639</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-4.4639854431152344</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.8513021469116211</v>
+      <c r="B13" s="1">
+        <v>-3.7520606517791748</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.2247834205627441</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.0975990295410156</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-4.0643086433410636</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.5060186386108398</v>
       </c>
     </row>
   </sheetData>
@@ -3942,11 +3748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
@@ -4044,7 +3850,7 @@
         <v>-5.6822648048400879</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>3.7698366641998291</v>
@@ -4103,7 +3909,7 @@
         <v>2.7215814590454102</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>-2.4797556400299068</v>
@@ -4162,7 +3968,7 @@
         <v>-8.9726743698120117</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>-1.7310246229171751</v>
@@ -4221,7 +4027,7 @@
         <v>-16.254264831542969</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>-4.9577746391296387</v>
@@ -4280,7 +4086,7 @@
         <v>-5.066004753112793</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>-5.398714542388916</v>
@@ -4447,300 +4253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>

--- a/Output/Decomposition_Graph.xlsx
+++ b/Output/Decomposition_Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Apps\GitHub\Euro-SCM-Replication-EJPE\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD001F-C4B0-4075-A83E-31F7E481F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53F29FB-96E8-40AB-96D0-2E9B0D049D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="731" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decomposition_newbaseline" sheetId="4" r:id="rId1"/>
@@ -263,40 +263,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.86756867170333862</c:v>
+                  <c:v>0.80077660083770752</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.34911125898361212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.76524047553539E-2</c:v>
+                  <c:v>7.1019454002380371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.0830531120300293</c:v>
+                  <c:v>-4.5000886917114258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.8781418800354004</c:v>
+                  <c:v>-10.23778629302979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.820960640907288</c:v>
+                  <c:v>3.4119632244110112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.36473178863525</c:v>
+                  <c:v>15.76279258728027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.6794157028198242</c:v>
+                  <c:v>-15.40274047851563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.688358306884769</c:v>
+                  <c:v>-17.05447959899902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.282341480255127</c:v>
+                  <c:v>-4.2831697463989258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.4785289764404297</c:v>
+                  <c:v>-9.2101449966430664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.7520606517791748</c:v>
+                  <c:v>-3.3514623641967769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,40 +380,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.219003438949585</c:v>
+                  <c:v>2.2028849124908452</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.8655366897583008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.741524815559387</c:v>
+                  <c:v>0.50212967395782471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70842981338500977</c:v>
+                  <c:v>0.65150761604309082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4281715154647829</c:v>
+                  <c:v>1.529950737953186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.261458158493042</c:v>
+                  <c:v>3.6984589099884029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3121323585510254</c:v>
+                  <c:v>6.6526989936828613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.90678882598877</c:v>
+                  <c:v>-2.5303206443786621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2858673483133302E-2</c:v>
+                  <c:v>4.0194416046142578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.067842960357666</c:v>
+                  <c:v>6.0507779121398926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0431375503540039</c:v>
+                  <c:v>-9.1773822903633104E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2247834205627441</c:v>
+                  <c:v>2.210186243057251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,40 +498,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.218452930450439</c:v>
+                  <c:v>-1.2430629730224609</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.3634312152862551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9635529518127439</c:v>
+                  <c:v>1.519248247146606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4846889972686772</c:v>
+                  <c:v>-2.5794823169708252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.629636287689209</c:v>
+                  <c:v>-6.2958297729492188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1642336845397949</c:v>
+                  <c:v>3.776292085647583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.505096435546879</c:v>
+                  <c:v>17.354976654052731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.6758871078491211</c:v>
+                  <c:v>-4.7980613708496094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.59555220603942871</c:v>
+                  <c:v>-3.0640029907226558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.26504403352737432</c:v>
+                  <c:v>-0.26781842112541199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.9100680947303772</c:v>
+                  <c:v>-1.7512062788009639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0975990295410156</c:v>
+                  <c:v>12.456562995910639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,40 +616,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4.0050206184387207</c:v>
+                  <c:v>-3.984438419342041</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.2425498962402344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.72651195526123047</c:v>
+                  <c:v>-4.6041355133056641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.2637290954589839</c:v>
+                  <c:v>-3.1962566375732422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0083484649658201</c:v>
+                  <c:v>0.98150300979614258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.9933967590332</c:v>
+                  <c:v>-11.624954223632811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9041824340820313</c:v>
+                  <c:v>0.22701263427734381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.217256546020508</c:v>
+                  <c:v>1.381391763687134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.269393920898438</c:v>
+                  <c:v>30.073822021484379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.98349380493164063</c:v>
+                  <c:v>-0.97684288024902344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.8367652893066406</c:v>
+                  <c:v>-5.6691923141479492</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.0643086433410636</c:v>
+                  <c:v>-4.4639854431152344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,40 +776,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.136902809143066</c:v>
+                  <c:v>-2.223838329315186</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2.391326904296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9309113025665279</c:v>
+                  <c:v>4.5191860198974609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.123042106628418</c:v>
+                  <c:v>-9.6243181228637695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.087953567504879</c:v>
+                  <c:v>-14.02216625213623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.7467401027679439</c:v>
+                  <c:v>-0.7382359504699707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.086143493652337</c:v>
+                  <c:v>39.997467041015632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.47934722900391</c:v>
+                  <c:v>-21.349729537963871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.018362045288089</c:v>
+                  <c:v>13.974778175354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5369640588760376</c:v>
+                  <c:v>0.52294445037841797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.18222141265869</c:v>
+                  <c:v>-16.722318649291989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5060186386108398</c:v>
+                  <c:v>6.8513021469116211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,40 +1879,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.86756867170333862</c:v>
+                  <c:v>0.80077660083770752</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.34911125898361212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.76524047553539E-2</c:v>
+                  <c:v>7.1019454002380371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.0830531120300293</c:v>
+                  <c:v>-4.5000886917114258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.8781418800354004</c:v>
+                  <c:v>-10.23778629302979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.820960640907288</c:v>
+                  <c:v>3.4119632244110112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.36473178863525</c:v>
+                  <c:v>15.76279258728027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.6794157028198242</c:v>
+                  <c:v>-15.40274047851563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.688358306884769</c:v>
+                  <c:v>-17.05447959899902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.282341480255127</c:v>
+                  <c:v>-4.2831697463989258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.4785289764404297</c:v>
+                  <c:v>-9.2101449966430664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.7520606517791748</c:v>
+                  <c:v>-3.3514623641967769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,40 +1996,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.219003438949585</c:v>
+                  <c:v>2.2028849124908452</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.8655366897583008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.741524815559387</c:v>
+                  <c:v>0.50212967395782471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70842981338500977</c:v>
+                  <c:v>0.65150761604309082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4281715154647829</c:v>
+                  <c:v>1.529950737953186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.261458158493042</c:v>
+                  <c:v>3.6984589099884029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3121323585510254</c:v>
+                  <c:v>6.6526989936828613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.90678882598877</c:v>
+                  <c:v>-2.5303206443786621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2858673483133302E-2</c:v>
+                  <c:v>4.0194416046142578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.067842960357666</c:v>
+                  <c:v>6.0507779121398926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0431375503540039</c:v>
+                  <c:v>-9.1773822903633104E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2247834205627441</c:v>
+                  <c:v>2.210186243057251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,40 +2114,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.218452930450439</c:v>
+                  <c:v>-1.2430629730224609</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1.3634312152862551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9635529518127439</c:v>
+                  <c:v>1.519248247146606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4846889972686772</c:v>
+                  <c:v>-2.5794823169708252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.629636287689209</c:v>
+                  <c:v>-6.2958297729492188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1642336845397949</c:v>
+                  <c:v>3.776292085647583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.505096435546879</c:v>
+                  <c:v>17.354976654052731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.6758871078491211</c:v>
+                  <c:v>-4.7980613708496094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.59555220603942871</c:v>
+                  <c:v>-3.0640029907226558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.26504403352737432</c:v>
+                  <c:v>-0.26781842112541199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.9100680947303772</c:v>
+                  <c:v>-1.7512062788009639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0975990295410156</c:v>
+                  <c:v>12.456562995910639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,40 +2232,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4.0050206184387207</c:v>
+                  <c:v>-3.984438419342041</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.2425498962402344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.72651195526123047</c:v>
+                  <c:v>-4.6041355133056641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.2637290954589839</c:v>
+                  <c:v>-3.1962566375732422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0083484649658201</c:v>
+                  <c:v>0.98150300979614258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.9933967590332</c:v>
+                  <c:v>-11.624954223632811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9041824340820313</c:v>
+                  <c:v>0.22701263427734381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.217256546020508</c:v>
+                  <c:v>1.381391763687134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.269393920898438</c:v>
+                  <c:v>30.073822021484379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.98349380493164063</c:v>
+                  <c:v>-0.97684288024902344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.8367652893066406</c:v>
+                  <c:v>-5.6691923141479492</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.0643086433410636</c:v>
+                  <c:v>-4.4639854431152344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,40 +2388,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.136902809143066</c:v>
+                  <c:v>-2.223838329315186</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2.391326904296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9309113025665279</c:v>
+                  <c:v>4.5191860198974609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.123042106628418</c:v>
+                  <c:v>-9.6243181228637695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.087953567504879</c:v>
+                  <c:v>-14.02216625213623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.7467401027679439</c:v>
+                  <c:v>-0.7382359504699707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.086143493652337</c:v>
+                  <c:v>39.997467041015632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.47934722900391</c:v>
+                  <c:v>-21.349729537963871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.018362045288089</c:v>
+                  <c:v>13.974778175354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5369640588760376</c:v>
+                  <c:v>0.52294445037841797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.18222141265869</c:v>
+                  <c:v>-16.722318649291989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5060186386108398</c:v>
+                  <c:v>6.8513021469116211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E643D296-C2EF-40D7-B54E-202ADD11FA8A}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.86756867170333862</v>
+        <v>0.80077660083770752</v>
       </c>
       <c r="C2" s="1">
-        <v>2.219003438949585</v>
+        <v>2.2028849124908452</v>
       </c>
       <c r="D2" s="1">
-        <v>-1.218452930450439</v>
+        <v>-1.2430629730224609</v>
       </c>
       <c r="E2" s="1">
-        <v>-4.0050206184387207</v>
+        <v>-3.984438419342041</v>
       </c>
       <c r="F2" s="1">
-        <v>-2.136902809143066</v>
+        <v>-2.223838329315186</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -3345,40 +3345,40 @@
         <v>21</v>
       </c>
       <c r="I3" s="1">
-        <v>0.86756867170333862</v>
+        <v>0.80077660083770752</v>
       </c>
       <c r="J3" s="1">
         <v>0.34911125898361212</v>
       </c>
       <c r="K3" s="1">
-        <v>-4.76524047553539E-2</v>
+        <v>7.1019454002380371</v>
       </c>
       <c r="L3" s="1">
-        <v>-4.0830531120300293</v>
+        <v>-4.5000886917114258</v>
       </c>
       <c r="M3" s="1">
-        <v>-7.8781418800354004</v>
+        <v>-10.23778629302979</v>
       </c>
       <c r="N3" s="1">
-        <v>1.820960640907288</v>
+        <v>3.4119632244110112</v>
       </c>
       <c r="O3" s="1">
-        <v>11.36473178863525</v>
+        <v>15.76279258728027</v>
       </c>
       <c r="P3" s="1">
-        <v>-8.6794157028198242</v>
+        <v>-15.40274047851563</v>
       </c>
       <c r="Q3" s="1">
-        <v>-17.688358306884769</v>
+        <v>-17.05447959899902</v>
       </c>
       <c r="R3" s="1">
-        <v>-4.282341480255127</v>
+        <v>-4.2831697463989258</v>
       </c>
       <c r="S3" s="1">
-        <v>-7.4785289764404297</v>
+        <v>-9.2101449966430664</v>
       </c>
       <c r="T3" s="1">
-        <v>-3.7520606517791748</v>
+        <v>-3.3514623641967769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3386,58 +3386,58 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>-4.76524047553539E-2</v>
+        <v>7.1019454002380371</v>
       </c>
       <c r="C4" s="1">
-        <v>1.741524815559387</v>
+        <v>0.50212967395782471</v>
       </c>
       <c r="D4" s="1">
-        <v>1.9635529518127439</v>
+        <v>1.519248247146606</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.72651195526123047</v>
+        <v>-4.6041355133056641</v>
       </c>
       <c r="F4" s="1">
-        <v>2.9309113025665279</v>
+        <v>4.5191860198974609</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <v>2.219003438949585</v>
+        <v>2.2028849124908452</v>
       </c>
       <c r="J4" s="1">
         <v>6.8655366897583008</v>
       </c>
       <c r="K4" s="1">
-        <v>1.741524815559387</v>
+        <v>0.50212967395782471</v>
       </c>
       <c r="L4" s="1">
-        <v>0.70842981338500977</v>
+        <v>0.65150761604309082</v>
       </c>
       <c r="M4" s="1">
-        <v>1.4281715154647829</v>
+        <v>1.529950737953186</v>
       </c>
       <c r="N4" s="1">
-        <v>3.261458158493042</v>
+        <v>3.6984589099884029</v>
       </c>
       <c r="O4" s="1">
-        <v>4.3121323585510254</v>
+        <v>6.6526989936828613</v>
       </c>
       <c r="P4" s="1">
-        <v>-2.90678882598877</v>
+        <v>-2.5303206443786621</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.2858673483133302E-2</v>
+        <v>4.0194416046142578</v>
       </c>
       <c r="R4" s="1">
-        <v>6.067842960357666</v>
+        <v>6.0507779121398926</v>
       </c>
       <c r="S4" s="1">
-        <v>2.0431375503540039</v>
+        <v>-9.1773822903633104E-2</v>
       </c>
       <c r="T4" s="1">
-        <v>3.2247834205627441</v>
+        <v>2.210186243057251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3445,58 +3445,58 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>-4.0830531120300293</v>
+        <v>-4.5000886917114258</v>
       </c>
       <c r="C5" s="1">
-        <v>0.70842981338500977</v>
+        <v>0.65150761604309082</v>
       </c>
       <c r="D5" s="1">
-        <v>-2.4846889972686772</v>
+        <v>-2.5794823169708252</v>
       </c>
       <c r="E5" s="1">
-        <v>-3.2637290954589839</v>
+        <v>-3.1962566375732422</v>
       </c>
       <c r="F5" s="1">
-        <v>-9.123042106628418</v>
+        <v>-9.6243181228637695</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="1">
-        <v>-1.218452930450439</v>
+        <v>-1.2430629730224609</v>
       </c>
       <c r="J5" s="1">
         <v>-1.3634312152862551</v>
       </c>
       <c r="K5" s="1">
-        <v>1.9635529518127439</v>
+        <v>1.519248247146606</v>
       </c>
       <c r="L5" s="1">
-        <v>-2.4846889972686772</v>
+        <v>-2.5794823169708252</v>
       </c>
       <c r="M5" s="1">
-        <v>-6.629636287689209</v>
+        <v>-6.2958297729492188</v>
       </c>
       <c r="N5" s="1">
-        <v>3.1642336845397949</v>
+        <v>3.776292085647583</v>
       </c>
       <c r="O5" s="1">
-        <v>18.505096435546879</v>
+        <v>17.354976654052731</v>
       </c>
       <c r="P5" s="1">
-        <v>-5.6758871078491211</v>
+        <v>-4.7980613708496094</v>
       </c>
       <c r="Q5" s="1">
-        <v>-0.59555220603942871</v>
+        <v>-3.0640029907226558</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.26504403352737432</v>
+        <v>-0.26781842112541199</v>
       </c>
       <c r="S5" s="1">
-        <v>-0.9100680947303772</v>
+        <v>-1.7512062788009639</v>
       </c>
       <c r="T5" s="1">
-        <v>9.0975990295410156</v>
+        <v>12.456562995910639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3504,58 +3504,58 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>-7.8781418800354004</v>
+        <v>-10.23778629302979</v>
       </c>
       <c r="C6" s="1">
-        <v>1.4281715154647829</v>
+        <v>1.529950737953186</v>
       </c>
       <c r="D6" s="1">
-        <v>-6.629636287689209</v>
+        <v>-6.2958297729492188</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.0083484649658201</v>
+        <v>0.98150300979614258</v>
       </c>
       <c r="F6" s="1">
-        <v>-14.087953567504879</v>
+        <v>-14.02216625213623</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1">
-        <v>-4.0050206184387207</v>
+        <v>-3.984438419342041</v>
       </c>
       <c r="J6" s="1">
         <v>-8.2425498962402344</v>
       </c>
       <c r="K6" s="1">
-        <v>-0.72651195526123047</v>
+        <v>-4.6041355133056641</v>
       </c>
       <c r="L6" s="1">
-        <v>-3.2637290954589839</v>
+        <v>-3.1962566375732422</v>
       </c>
       <c r="M6" s="1">
-        <v>-1.0083484649658201</v>
+        <v>0.98150300979614258</v>
       </c>
       <c r="N6" s="1">
-        <v>-10.9933967590332</v>
+        <v>-11.624954223632811</v>
       </c>
       <c r="O6" s="1">
-        <v>4.9041824340820313</v>
+        <v>0.22701263427734381</v>
       </c>
       <c r="P6" s="1">
-        <v>-1.217256546020508</v>
+        <v>1.381391763687134</v>
       </c>
       <c r="Q6" s="1">
-        <v>34.269393920898438</v>
+        <v>30.073822021484379</v>
       </c>
       <c r="R6" s="1">
-        <v>-0.98349380493164063</v>
+        <v>-0.97684288024902344</v>
       </c>
       <c r="S6" s="1">
-        <v>-5.8367652893066406</v>
+        <v>-5.6691923141479492</v>
       </c>
       <c r="T6" s="1">
-        <v>-4.0643086433410636</v>
+        <v>-4.4639854431152344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3563,58 +3563,58 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1.820960640907288</v>
+        <v>3.4119632244110112</v>
       </c>
       <c r="C7" s="1">
-        <v>3.261458158493042</v>
+        <v>3.6984589099884029</v>
       </c>
       <c r="D7" s="1">
-        <v>3.1642336845397949</v>
+        <v>3.776292085647583</v>
       </c>
       <c r="E7" s="1">
-        <v>-10.9933967590332</v>
+        <v>-11.624954223632811</v>
       </c>
       <c r="F7" s="1">
-        <v>-2.7467401027679439</v>
+        <v>-0.7382359504699707</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="1">
-        <v>-2.136902809143066</v>
+        <v>-2.223838329315186</v>
       </c>
       <c r="J7" s="1">
         <v>-2.391326904296875</v>
       </c>
       <c r="K7" s="1">
-        <v>2.9309113025665279</v>
+        <v>4.5191860198974609</v>
       </c>
       <c r="L7" s="1">
-        <v>-9.123042106628418</v>
+        <v>-9.6243181228637695</v>
       </c>
       <c r="M7" s="1">
-        <v>-14.087953567504879</v>
+        <v>-14.02216625213623</v>
       </c>
       <c r="N7" s="1">
-        <v>-2.7467401027679439</v>
+        <v>-0.7382359504699707</v>
       </c>
       <c r="O7" s="1">
-        <v>39.086143493652337</v>
+        <v>39.997467041015632</v>
       </c>
       <c r="P7" s="1">
-        <v>-18.47934722900391</v>
+        <v>-21.349729537963871</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.018362045288089</v>
+        <v>13.974778175354</v>
       </c>
       <c r="R7" s="1">
-        <v>0.5369640588760376</v>
+        <v>0.52294445037841797</v>
       </c>
       <c r="S7" s="1">
-        <v>-12.18222141265869</v>
+        <v>-16.722318649291989</v>
       </c>
       <c r="T7" s="1">
-        <v>4.5060186386108398</v>
+        <v>6.8513021469116211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3622,19 +3622,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>11.36473178863525</v>
+        <v>15.76279258728027</v>
       </c>
       <c r="C8" s="1">
-        <v>4.3121323585510254</v>
+        <v>6.6526989936828613</v>
       </c>
       <c r="D8" s="1">
-        <v>18.505096435546879</v>
+        <v>17.354976654052731</v>
       </c>
       <c r="E8" s="1">
-        <v>4.9041824340820313</v>
+        <v>0.22701263427734381</v>
       </c>
       <c r="F8" s="1">
-        <v>39.086143493652337</v>
+        <v>39.997467041015632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3642,19 +3642,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>-8.6794157028198242</v>
+        <v>-15.40274047851563</v>
       </c>
       <c r="C9" s="1">
-        <v>-2.90678882598877</v>
+        <v>-2.5303206443786621</v>
       </c>
       <c r="D9" s="1">
-        <v>-5.6758871078491211</v>
+        <v>-4.7980613708496094</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.217256546020508</v>
+        <v>1.381391763687134</v>
       </c>
       <c r="F9" s="1">
-        <v>-18.47934722900391</v>
+        <v>-21.349729537963871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3662,19 +3662,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>-17.688358306884769</v>
+        <v>-17.05447959899902</v>
       </c>
       <c r="C10" s="1">
-        <v>3.2858673483133302E-2</v>
+        <v>4.0194416046142578</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.59555220603942871</v>
+        <v>-3.0640029907226558</v>
       </c>
       <c r="E10" s="1">
-        <v>34.269393920898438</v>
+        <v>30.073822021484379</v>
       </c>
       <c r="F10" s="1">
-        <v>16.018362045288089</v>
+        <v>13.974778175354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3682,19 +3682,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>-4.282341480255127</v>
+        <v>-4.2831697463989258</v>
       </c>
       <c r="C11" s="1">
-        <v>6.067842960357666</v>
+        <v>6.0507779121398926</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.26504403352737432</v>
+        <v>-0.26781842112541199</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.98349380493164063</v>
+        <v>-0.97684288024902344</v>
       </c>
       <c r="F11" s="1">
-        <v>0.5369640588760376</v>
+        <v>0.52294445037841797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3702,19 +3702,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>-7.4785289764404297</v>
+        <v>-9.2101449966430664</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0431375503540039</v>
+        <v>-9.1773822903633104E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.9100680947303772</v>
+        <v>-1.7512062788009639</v>
       </c>
       <c r="E12" s="1">
-        <v>-5.8367652893066406</v>
+        <v>-5.6691923141479492</v>
       </c>
       <c r="F12" s="1">
-        <v>-12.18222141265869</v>
+        <v>-16.722318649291989</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3722,19 +3722,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>-3.7520606517791748</v>
+        <v>-3.3514623641967769</v>
       </c>
       <c r="C13" s="1">
-        <v>3.2247834205627441</v>
+        <v>2.210186243057251</v>
       </c>
       <c r="D13" s="1">
-        <v>9.0975990295410156</v>
+        <v>12.456562995910639</v>
       </c>
       <c r="E13" s="1">
-        <v>-4.0643086433410636</v>
+        <v>-4.4639854431152344</v>
       </c>
       <c r="F13" s="1">
-        <v>4.5060186386108398</v>
+        <v>6.8513021469116211</v>
       </c>
     </row>
   </sheetData>
@@ -4256,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
